--- a/data/Frol_PSH.xlsx
+++ b/data/Frol_PSH.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="39">
   <si>
     <t>Номер ПОр.</t>
   </si>
@@ -289,6 +289,12 @@
   <si>
     <t>Сезон «ЗИМА»</t>
   </si>
+  <si>
+    <t>Количество Блоков Ростовской АЭС находящихся в работе</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -441,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -470,16 +476,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -491,10 +491,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -801,279 +810,286 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView topLeftCell="G20" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="2" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="18"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="1">
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="1">
         <v>1600</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1650</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1700</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1750</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1800</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1850</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1900</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1950</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>2000</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2050</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>2100</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>2150</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>2200</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>2250</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>2300</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>2350</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>2400</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>2450</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>2500</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>2550</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>2600</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>2650</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>2700</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>2750</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>2800</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>2850</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>2900</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>2950</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>3000</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>3050</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>3100</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>3150</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16">
-        <v>2</v>
-      </c>
-      <c r="F3" s="16">
-        <v>3</v>
-      </c>
-      <c r="G3" s="16">
-        <v>4</v>
-      </c>
-      <c r="H3" s="16">
-        <v>5</v>
-      </c>
-      <c r="I3" s="16">
-        <v>6</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="B3" s="19"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9">
         <v>7</v>
       </c>
-      <c r="K3" s="16">
+      <c r="L3" s="9">
         <v>8</v>
       </c>
-      <c r="L3" s="16">
+      <c r="M3" s="9">
         <v>9</v>
       </c>
-      <c r="M3" s="16">
+      <c r="N3" s="9">
         <v>10</v>
       </c>
-      <c r="N3" s="16">
+      <c r="O3" s="9">
         <v>11</v>
       </c>
-      <c r="O3" s="16">
+      <c r="P3" s="9">
         <v>12</v>
       </c>
-      <c r="P3" s="16">
+      <c r="Q3" s="9">
         <v>13</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="R3" s="9">
         <v>14</v>
       </c>
-      <c r="R3" s="16">
+      <c r="S3" s="9">
         <v>15</v>
       </c>
-      <c r="S3" s="16">
+      <c r="T3" s="9">
         <v>16</v>
       </c>
-      <c r="T3" s="16">
+      <c r="U3" s="9">
         <v>17</v>
       </c>
-      <c r="U3" s="16">
+      <c r="V3" s="9">
         <v>18</v>
       </c>
-      <c r="V3" s="16">
+      <c r="W3" s="9">
         <v>19</v>
       </c>
-      <c r="W3" s="16">
+      <c r="X3" s="9">
         <v>20</v>
       </c>
-      <c r="X3" s="16">
+      <c r="Y3" s="9">
         <v>21</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Z3" s="9">
         <v>22</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="AA3" s="9">
         <v>23</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AB3" s="9">
         <v>24</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AC3" s="9">
         <v>25</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AD3" s="9">
         <v>26</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AE3" s="9">
         <v>27</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AF3" s="9">
         <v>28</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AG3" s="9">
         <v>29</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AH3" s="9">
         <v>30</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AI3" s="9">
         <v>31</v>
       </c>
-      <c r="AI3" s="16">
+      <c r="AJ3" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1085,10 +1101,10 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="6"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="6"/>
+      <c r="U4" s="4"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -1096,14 +1112,12 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="7">
-        <v>1</v>
-      </c>
+      <c r="AC4" s="6"/>
       <c r="AD4" s="7">
         <v>1</v>
       </c>
       <c r="AE4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="7">
         <v>2</v>
@@ -1112,25 +1126,30 @@
         <v>2</v>
       </c>
       <c r="AH4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" s="7">
         <v>3</v>
       </c>
+      <c r="AJ4" s="7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1138,38 +1157,36 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="7">
         <v>1</v>
       </c>
       <c r="P5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="7">
         <v>2</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <v>2</v>
       </c>
       <c r="S5" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T5" s="8">
         <v>3</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="8">
         <v>3</v>
       </c>
       <c r="V5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W5" s="7">
         <v>4</v>
       </c>
       <c r="X5" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y5" s="7">
         <v>5</v>
@@ -1178,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="AA5" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="7">
         <v>6</v>
@@ -1204,20 +1221,25 @@
       <c r="AI5" s="7">
         <v>6</v>
       </c>
+      <c r="AJ5" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1228,14 +1250,12 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="8">
-        <v>1</v>
-      </c>
-      <c r="R6" s="7">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="8">
         <v>1</v>
       </c>
       <c r="S6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T6" s="7">
         <v>2</v>
@@ -1244,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="V6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W6" s="7">
         <v>3</v>
@@ -1253,13 +1273,13 @@
         <v>3</v>
       </c>
       <c r="Y6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="7">
         <v>4</v>
       </c>
       <c r="AA6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB6" s="7">
         <v>5</v>
@@ -1268,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="AD6" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE6" s="7">
         <v>6</v>
@@ -1285,34 +1305,37 @@
       <c r="AI6" s="7">
         <v>6</v>
       </c>
+      <c r="AJ6" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="7">
         <v>1</v>
       </c>
-      <c r="O7" s="8">
-        <v>2</v>
+      <c r="O7" s="7">
+        <v>1</v>
       </c>
       <c r="P7" s="8">
         <v>2</v>
@@ -1320,8 +1343,8 @@
       <c r="Q7" s="8">
         <v>2</v>
       </c>
-      <c r="R7" s="7">
-        <v>3</v>
+      <c r="R7" s="8">
+        <v>2</v>
       </c>
       <c r="S7" s="7">
         <v>3</v>
@@ -1330,13 +1353,13 @@
         <v>3</v>
       </c>
       <c r="U7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7" s="7">
         <v>4</v>
       </c>
       <c r="W7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X7" s="7">
         <v>5</v>
@@ -1345,7 +1368,7 @@
         <v>5</v>
       </c>
       <c r="Z7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA7" s="7">
         <v>6</v>
@@ -1374,20 +1397,25 @@
       <c r="AI7" s="7">
         <v>6</v>
       </c>
+      <c r="AJ7" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1399,20 +1427,18 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="6"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="7">
-        <v>1</v>
-      </c>
+      <c r="X8" s="6"/>
       <c r="Y8" s="7">
         <v>1</v>
       </c>
-      <c r="Z8" s="8">
-        <v>2</v>
+      <c r="Z8" s="7">
+        <v>1</v>
       </c>
       <c r="AA8" s="8">
         <v>2</v>
@@ -1420,8 +1446,8 @@
       <c r="AB8" s="8">
         <v>2</v>
       </c>
-      <c r="AC8" s="7">
-        <v>3</v>
+      <c r="AC8" s="8">
+        <v>2</v>
       </c>
       <c r="AD8" s="7">
         <v>3</v>
@@ -1430,31 +1456,36 @@
         <v>3</v>
       </c>
       <c r="AF8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="7">
         <v>4</v>
       </c>
       <c r="AH8" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI8" s="7">
         <v>5</v>
       </c>
+      <c r="AJ8" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1466,24 +1497,22 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="6"/>
+      <c r="U9" s="4"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB9" s="6"/>
       <c r="AC9" s="7">
         <v>1</v>
       </c>
-      <c r="AD9" s="8">
-        <v>2</v>
+      <c r="AD9" s="7">
+        <v>1</v>
       </c>
       <c r="AE9" s="8">
         <v>2</v>
@@ -1491,8 +1520,8 @@
       <c r="AF9" s="8">
         <v>2</v>
       </c>
-      <c r="AG9" s="7">
-        <v>3</v>
+      <c r="AG9" s="8">
+        <v>2</v>
       </c>
       <c r="AH9" s="7">
         <v>3</v>
@@ -1500,20 +1529,25 @@
       <c r="AI9" s="7">
         <v>3</v>
       </c>
+      <c r="AJ9" s="7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1525,15 +1559,13 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="7">
-        <v>1</v>
-      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="7">
         <v>1</v>
       </c>
-      <c r="U10" s="8">
-        <v>2</v>
+      <c r="U10" s="7">
+        <v>1</v>
       </c>
       <c r="V10" s="8">
         <v>2</v>
@@ -1541,8 +1573,8 @@
       <c r="W10" s="8">
         <v>2</v>
       </c>
-      <c r="X10" s="7">
-        <v>3</v>
+      <c r="X10" s="8">
+        <v>2</v>
       </c>
       <c r="Y10" s="7">
         <v>3</v>
@@ -1551,13 +1583,13 @@
         <v>3</v>
       </c>
       <c r="AA10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB10" s="7">
         <v>4</v>
       </c>
       <c r="AC10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD10" s="7">
         <v>5</v>
@@ -1566,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="AF10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG10" s="7">
         <v>6</v>
@@ -1577,31 +1609,34 @@
       <c r="AI10" s="7">
         <v>6</v>
       </c>
+      <c r="AJ10" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="7">
         <v>1</v>
       </c>
       <c r="L11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -1610,22 +1645,22 @@
         <v>2</v>
       </c>
       <c r="O11" s="7">
-        <v>3</v>
-      </c>
-      <c r="P11" s="8">
+        <v>2</v>
+      </c>
+      <c r="P11" s="7">
         <v>3</v>
       </c>
       <c r="Q11" s="8">
         <v>3</v>
       </c>
       <c r="R11" s="8">
-        <v>4</v>
-      </c>
-      <c r="S11" s="7">
+        <v>3</v>
+      </c>
+      <c r="S11" s="8">
         <v>4</v>
       </c>
       <c r="T11" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U11" s="7">
         <v>5</v>
@@ -1634,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="W11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X11" s="7">
         <v>6</v>
@@ -1672,20 +1707,25 @@
       <c r="AI11" s="7">
         <v>6</v>
       </c>
+      <c r="AJ11" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1693,14 +1733,12 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="7">
         <v>1</v>
       </c>
-      <c r="P12" s="8">
-        <v>2</v>
+      <c r="P12" s="7">
+        <v>1</v>
       </c>
       <c r="Q12" s="8">
         <v>2</v>
@@ -1708,8 +1746,8 @@
       <c r="R12" s="8">
         <v>2</v>
       </c>
-      <c r="S12" s="7">
-        <v>3</v>
+      <c r="S12" s="8">
+        <v>2</v>
       </c>
       <c r="T12" s="7">
         <v>3</v>
@@ -1718,13 +1756,13 @@
         <v>3</v>
       </c>
       <c r="V12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W12" s="7">
         <v>4</v>
       </c>
       <c r="X12" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y12" s="7">
         <v>5</v>
@@ -1733,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="AA12" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB12" s="7">
         <v>6</v>
@@ -1759,20 +1797,25 @@
       <c r="AI12" s="7">
         <v>6</v>
       </c>
+      <c r="AJ12" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1784,38 +1827,36 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="8">
-        <v>1</v>
-      </c>
-      <c r="S13" s="7">
+      <c r="R13" s="6"/>
+      <c r="S13" s="8">
         <v>1</v>
       </c>
       <c r="T13" s="7">
-        <v>2</v>
-      </c>
-      <c r="U13" s="8">
+        <v>1</v>
+      </c>
+      <c r="U13" s="7">
         <v>2</v>
       </c>
       <c r="V13" s="8">
         <v>2</v>
       </c>
       <c r="W13" s="8">
-        <v>3</v>
-      </c>
-      <c r="X13" s="7">
+        <v>2</v>
+      </c>
+      <c r="X13" s="8">
         <v>3</v>
       </c>
       <c r="Y13" s="7">
         <v>3</v>
       </c>
       <c r="Z13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA13" s="7">
         <v>4</v>
       </c>
       <c r="AB13" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC13" s="7">
         <v>5</v>
@@ -1824,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="AE13" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF13" s="7">
         <v>6</v>
@@ -1838,20 +1879,25 @@
       <c r="AI13" s="7">
         <v>6</v>
       </c>
+      <c r="AJ13" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1863,17 +1909,15 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="7">
-        <v>1</v>
-      </c>
+      <c r="U14" s="4"/>
       <c r="V14" s="7">
         <v>1</v>
       </c>
-      <c r="W14" s="8">
-        <v>2</v>
+      <c r="W14" s="7">
+        <v>1</v>
       </c>
       <c r="X14" s="8">
         <v>2</v>
@@ -1881,8 +1925,8 @@
       <c r="Y14" s="8">
         <v>2</v>
       </c>
-      <c r="Z14" s="7">
-        <v>3</v>
+      <c r="Z14" s="8">
+        <v>2</v>
       </c>
       <c r="AA14" s="7">
         <v>3</v>
@@ -1891,13 +1935,13 @@
         <v>3</v>
       </c>
       <c r="AC14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="7">
         <v>4</v>
       </c>
       <c r="AE14" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" s="7">
         <v>5</v>
@@ -1906,63 +1950,66 @@
         <v>5</v>
       </c>
       <c r="AH14" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI14" s="7">
         <v>6</v>
       </c>
+      <c r="AJ14" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
+      <c r="M15" s="6"/>
       <c r="N15" s="7">
         <v>1</v>
       </c>
       <c r="O15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P15" s="7">
         <v>2</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="7">
         <v>2</v>
       </c>
       <c r="R15" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S15" s="8">
         <v>3</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="8">
         <v>3</v>
       </c>
       <c r="U15" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15" s="7">
         <v>4</v>
       </c>
       <c r="W15" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X15" s="7">
         <v>5</v>
@@ -1971,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="Z15" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA15" s="7">
         <v>6</v>
@@ -2000,30 +2047,33 @@
       <c r="AI15" s="7">
         <v>6</v>
       </c>
+      <c r="AJ15" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
+      <c r="I16" s="6"/>
       <c r="J16" s="7">
         <v>1</v>
       </c>
       <c r="K16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" s="7">
         <v>2</v>
@@ -2032,22 +2082,22 @@
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16" s="7">
         <v>3</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="7">
         <v>3</v>
       </c>
       <c r="Q16" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16" s="8">
         <v>4</v>
       </c>
-      <c r="S16" s="7">
-        <v>5</v>
+      <c r="S16" s="8">
+        <v>4</v>
       </c>
       <c r="T16" s="7">
         <v>5</v>
@@ -2056,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="V16" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W16" s="7">
         <v>6</v>
@@ -2097,20 +2147,25 @@
       <c r="AI16" s="7">
         <v>6</v>
       </c>
+      <c r="AJ16" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2120,15 +2175,13 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="7">
-        <v>1</v>
-      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="7">
         <v>1</v>
       </c>
       <c r="S17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" s="7">
         <v>2</v>
@@ -2137,22 +2190,22 @@
         <v>2</v>
       </c>
       <c r="V17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17" s="7">
         <v>3</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="7">
         <v>3</v>
       </c>
       <c r="Y17" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="8">
         <v>4</v>
       </c>
-      <c r="AA17" s="7">
-        <v>5</v>
+      <c r="AA17" s="8">
+        <v>4</v>
       </c>
       <c r="AB17" s="7">
         <v>5</v>
@@ -2161,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="AD17" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE17" s="7">
         <v>6</v>
@@ -2178,20 +2231,25 @@
       <c r="AI17" s="7">
         <v>6</v>
       </c>
+      <c r="AJ17" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2201,18 +2259,16 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="4"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="7">
-        <v>1</v>
-      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="7">
         <v>1</v>
       </c>
       <c r="V18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18" s="7">
         <v>2</v>
@@ -2221,22 +2277,22 @@
         <v>2</v>
       </c>
       <c r="Y18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z18" s="7">
         <v>3</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AA18" s="7">
         <v>3</v>
       </c>
       <c r="AB18" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC18" s="8">
         <v>4</v>
       </c>
-      <c r="AD18" s="7">
-        <v>5</v>
+      <c r="AD18" s="8">
+        <v>4</v>
       </c>
       <c r="AE18" s="7">
         <v>5</v>
@@ -2245,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="AG18" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH18" s="7">
         <v>6</v>
@@ -2253,34 +2309,37 @@
       <c r="AI18" s="7">
         <v>6</v>
       </c>
+      <c r="AJ18" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
+      <c r="M19" s="6"/>
       <c r="N19" s="7">
         <v>1</v>
       </c>
       <c r="O19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" s="7">
         <v>2</v>
@@ -2289,22 +2348,22 @@
         <v>2</v>
       </c>
       <c r="R19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S19" s="7">
         <v>3</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="7">
         <v>3</v>
       </c>
       <c r="U19" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V19" s="8">
         <v>4</v>
       </c>
-      <c r="W19" s="7">
-        <v>5</v>
+      <c r="W19" s="8">
+        <v>4</v>
       </c>
       <c r="X19" s="7">
         <v>5</v>
@@ -2313,7 +2372,7 @@
         <v>5</v>
       </c>
       <c r="Z19" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA19" s="7">
         <v>6</v>
@@ -2342,56 +2401,59 @@
       <c r="AI19" s="7">
         <v>6</v>
       </c>
+      <c r="AJ19" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="7">
-        <v>1</v>
-      </c>
+      <c r="K20" s="6"/>
       <c r="L20" s="7">
         <v>1</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
         <v>2</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <v>2</v>
       </c>
       <c r="P20" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="8">
         <v>3</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="8">
         <v>3</v>
       </c>
       <c r="S20" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T20" s="7">
         <v>4</v>
       </c>
       <c r="U20" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" s="7">
         <v>5</v>
@@ -2400,7 +2462,7 @@
         <v>5</v>
       </c>
       <c r="X20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y20" s="7">
         <v>6</v>
@@ -2435,57 +2497,60 @@
       <c r="AI20" s="7">
         <v>6</v>
       </c>
+      <c r="AJ20" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="7">
-        <v>1</v>
-      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="7">
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" s="7">
         <v>2</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="7">
         <v>2</v>
       </c>
       <c r="Q21" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21" s="8">
         <v>3</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="8">
         <v>3</v>
       </c>
       <c r="T21" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U21" s="7">
         <v>4</v>
       </c>
       <c r="V21" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W21" s="7">
         <v>5</v>
@@ -2494,7 +2559,7 @@
         <v>5</v>
       </c>
       <c r="Y21" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z21" s="7">
         <v>6</v>
@@ -2526,51 +2591,54 @@
       <c r="AI21" s="7">
         <v>6</v>
       </c>
+      <c r="AJ21" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="7">
         <v>1</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
         <v>2</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <v>2</v>
       </c>
       <c r="K22" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" s="8">
         <v>3</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="8">
         <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O22" s="7">
         <v>4</v>
       </c>
       <c r="P22" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="7">
         <v>5</v>
@@ -2579,7 +2647,7 @@
         <v>5</v>
       </c>
       <c r="S22" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T22" s="7">
         <v>6</v>
@@ -2629,20 +2697,25 @@
       <c r="AI22" s="7">
         <v>6</v>
       </c>
+      <c r="AJ22" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2651,38 +2724,36 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="7">
-        <v>1</v>
-      </c>
+      <c r="O23" s="6"/>
       <c r="P23" s="7">
         <v>1</v>
       </c>
       <c r="Q23" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" s="7">
         <v>2</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="7">
         <v>2</v>
       </c>
       <c r="T23" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U23" s="8">
         <v>3</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="8">
         <v>3</v>
       </c>
       <c r="W23" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X23" s="7">
         <v>4</v>
       </c>
       <c r="Y23" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z23" s="7">
         <v>5</v>
@@ -2691,7 +2762,7 @@
         <v>5</v>
       </c>
       <c r="AB23" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC23" s="7">
         <v>6</v>
@@ -2714,51 +2785,54 @@
       <c r="AI23" s="7">
         <v>6</v>
       </c>
+      <c r="AJ23" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="7">
         <v>1</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
         <v>2</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>2</v>
       </c>
       <c r="K24" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24" s="8">
         <v>3</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="8">
         <v>3</v>
       </c>
       <c r="N24" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24" s="7">
         <v>4</v>
       </c>
       <c r="P24" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="7">
         <v>5</v>
@@ -2767,7 +2841,7 @@
         <v>5</v>
       </c>
       <c r="S24" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T24" s="7">
         <v>6</v>
@@ -2817,20 +2891,25 @@
       <c r="AI24" s="7">
         <v>6</v>
       </c>
+      <c r="AJ24" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2841,38 +2920,36 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q25" s="6"/>
       <c r="R25" s="7">
         <v>1</v>
       </c>
       <c r="S25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25" s="7">
         <v>2</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="7">
         <v>2</v>
       </c>
       <c r="V25" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W25" s="8">
         <v>3</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="8">
         <v>3</v>
       </c>
       <c r="Y25" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z25" s="7">
         <v>4</v>
       </c>
       <c r="AA25" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB25" s="7">
         <v>5</v>
@@ -2881,7 +2958,7 @@
         <v>5</v>
       </c>
       <c r="AD25" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE25" s="7">
         <v>6</v>
@@ -2896,15 +2973,19 @@
         <v>6</v>
       </c>
       <c r="AI25" s="7">
+        <v>6</v>
+      </c>
+      <c r="AJ25" s="7">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2913,279 +2994,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="1" max="2" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="13"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="18"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="1">
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="1">
         <v>700</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>750</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>800</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>850</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>900</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>950</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1000</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1050</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1100</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>1150</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>1200</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>1250</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>1300</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>1350</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>1400</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>1450</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>1500</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>1550</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>1600</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>1650</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>1700</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>1750</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>1800</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1850</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>1900</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>1950</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>2000</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>2050</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>2100</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>2150</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>2200</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>2250</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16">
-        <v>2</v>
-      </c>
-      <c r="F3" s="16">
-        <v>3</v>
-      </c>
-      <c r="G3" s="16">
-        <v>4</v>
-      </c>
-      <c r="H3" s="16">
-        <v>5</v>
-      </c>
-      <c r="I3" s="16">
-        <v>6</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="B3" s="19"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9">
         <v>7</v>
       </c>
-      <c r="K3" s="16">
+      <c r="L3" s="9">
         <v>8</v>
       </c>
-      <c r="L3" s="16">
+      <c r="M3" s="9">
         <v>9</v>
       </c>
-      <c r="M3" s="16">
+      <c r="N3" s="9">
         <v>10</v>
       </c>
-      <c r="N3" s="16">
+      <c r="O3" s="9">
         <v>11</v>
       </c>
-      <c r="O3" s="16">
+      <c r="P3" s="9">
         <v>12</v>
       </c>
-      <c r="P3" s="16">
+      <c r="Q3" s="9">
         <v>13</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="R3" s="9">
         <v>14</v>
       </c>
-      <c r="R3" s="16">
+      <c r="S3" s="9">
         <v>15</v>
       </c>
-      <c r="S3" s="16">
+      <c r="T3" s="9">
         <v>16</v>
       </c>
-      <c r="T3" s="16">
+      <c r="U3" s="9">
         <v>17</v>
       </c>
-      <c r="U3" s="16">
+      <c r="V3" s="9">
         <v>18</v>
       </c>
-      <c r="V3" s="16">
+      <c r="W3" s="9">
         <v>19</v>
       </c>
-      <c r="W3" s="16">
+      <c r="X3" s="9">
         <v>20</v>
       </c>
-      <c r="X3" s="16">
+      <c r="Y3" s="9">
         <v>21</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Z3" s="9">
         <v>22</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="AA3" s="9">
         <v>23</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AB3" s="9">
         <v>24</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AC3" s="9">
         <v>25</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AD3" s="9">
         <v>26</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AE3" s="9">
         <v>27</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AF3" s="9">
         <v>28</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AG3" s="9">
         <v>29</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AH3" s="9">
         <v>30</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AI3" s="9">
         <v>31</v>
       </c>
-      <c r="AI3" s="16">
+      <c r="AJ3" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3196,14 +3284,12 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q4" s="6"/>
       <c r="R4" s="7">
         <v>1</v>
       </c>
-      <c r="S4" s="8">
-        <v>2</v>
+      <c r="S4" s="7">
+        <v>1</v>
       </c>
       <c r="T4" s="8">
         <v>2</v>
@@ -3211,8 +3297,8 @@
       <c r="U4" s="8">
         <v>2</v>
       </c>
-      <c r="V4" s="7">
-        <v>3</v>
+      <c r="V4" s="8">
+        <v>2</v>
       </c>
       <c r="W4" s="7">
         <v>3</v>
@@ -3221,13 +3307,13 @@
         <v>3</v>
       </c>
       <c r="Y4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="7">
         <v>4</v>
       </c>
       <c r="AA4" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="7">
         <v>5</v>
@@ -3236,7 +3322,7 @@
         <v>5</v>
       </c>
       <c r="AD4" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE4" s="7">
         <v>6</v>
@@ -3253,20 +3339,25 @@
       <c r="AI4" s="7">
         <v>6</v>
       </c>
+      <c r="AJ4" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" ht="230.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -3275,38 +3366,36 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
+      <c r="O5" s="6"/>
       <c r="P5" s="7">
         <v>1</v>
       </c>
       <c r="Q5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5" s="7">
         <v>2</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <v>2</v>
       </c>
       <c r="T5" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5" s="8">
         <v>3</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="8">
         <v>3</v>
       </c>
       <c r="W5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X5" s="7">
         <v>4</v>
       </c>
       <c r="Y5" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z5" s="7">
         <v>5</v>
@@ -3315,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="AB5" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC5" s="7">
         <v>6</v>
@@ -3338,20 +3427,25 @@
       <c r="AI5" s="7">
         <v>6</v>
       </c>
+      <c r="AJ5" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -3361,14 +3455,12 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
+      <c r="P6" s="6"/>
       <c r="Q6" s="7">
         <v>1</v>
       </c>
-      <c r="R6" s="8">
-        <v>2</v>
+      <c r="R6" s="7">
+        <v>1</v>
       </c>
       <c r="S6" s="8">
         <v>2</v>
@@ -3376,8 +3468,8 @@
       <c r="T6" s="8">
         <v>2</v>
       </c>
-      <c r="U6" s="7">
-        <v>3</v>
+      <c r="U6" s="8">
+        <v>2</v>
       </c>
       <c r="V6" s="7">
         <v>3</v>
@@ -3386,13 +3478,13 @@
         <v>3</v>
       </c>
       <c r="X6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="7">
         <v>4</v>
       </c>
       <c r="Z6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA6" s="7">
         <v>5</v>
@@ -3401,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="AC6" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AD6" s="7">
         <v>6</v>
@@ -3421,34 +3513,37 @@
       <c r="AI6" s="7">
         <v>6</v>
       </c>
+      <c r="AJ6" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="7">
         <v>1</v>
       </c>
       <c r="O7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="7">
         <v>2</v>
@@ -3457,22 +3552,22 @@
         <v>2</v>
       </c>
       <c r="R7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S7" s="7">
         <v>3</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <v>3</v>
       </c>
       <c r="U7" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7" s="8">
         <v>4</v>
       </c>
-      <c r="W7" s="7">
-        <v>5</v>
+      <c r="W7" s="8">
+        <v>4</v>
       </c>
       <c r="X7" s="7">
         <v>5</v>
@@ -3481,7 +3576,7 @@
         <v>5</v>
       </c>
       <c r="Z7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA7" s="7">
         <v>6</v>
@@ -3510,20 +3605,25 @@
       <c r="AI7" s="7">
         <v>6</v>
       </c>
+      <c r="AJ7" s="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -3535,20 +3635,18 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="6"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="7">
-        <v>1</v>
-      </c>
+      <c r="X8" s="6"/>
       <c r="Y8" s="7">
         <v>1</v>
       </c>
       <c r="Z8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="7">
         <v>2</v>
@@ -3557,45 +3655,48 @@
         <v>2</v>
       </c>
       <c r="AC8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="7">
         <v>3</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AE8" s="7">
         <v>3</v>
       </c>
       <c r="AF8" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="8">
         <v>4</v>
       </c>
-      <c r="AH8" s="7">
-        <v>5</v>
+      <c r="AH8" s="8">
+        <v>4</v>
       </c>
       <c r="AI8" s="7">
         <v>5</v>
       </c>
+      <c r="AJ8" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8">
         <v>1</v>
       </c>
       <c r="F9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
         <v>2</v>
@@ -3604,7 +3705,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="7">
         <v>3</v>
@@ -3613,13 +3714,13 @@
         <v>3</v>
       </c>
       <c r="L9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9" s="7">
         <v>5</v>
@@ -3627,10 +3728,10 @@
       <c r="P9" s="7">
         <v>5</v>
       </c>
-      <c r="Q9" s="8">
-        <v>6</v>
-      </c>
-      <c r="R9" s="7">
+      <c r="Q9" s="7">
+        <v>5</v>
+      </c>
+      <c r="R9" s="8">
         <v>6</v>
       </c>
       <c r="S9" s="7">
@@ -3682,15 +3783,19 @@
         <v>6</v>
       </c>
       <c r="AI9" s="7">
+        <v>6</v>
+      </c>
+      <c r="AJ9" s="7">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3698,279 +3803,286 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="1" max="2" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="13"/>
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="18"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="1">
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="1">
         <v>1600</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1650</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1700</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1750</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1800</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>1850</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1900</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1950</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>2000</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2050</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>2100</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>2150</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>2200</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>2250</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>2300</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>2350</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>2400</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>2450</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>2500</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>2550</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>2600</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>2650</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>2700</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>2750</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>2800</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>2850</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>2900</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>2950</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>3000</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>3050</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>3100</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>3150</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16">
-        <v>2</v>
-      </c>
-      <c r="F3" s="16">
-        <v>3</v>
-      </c>
-      <c r="G3" s="16">
-        <v>4</v>
-      </c>
-      <c r="H3" s="16">
-        <v>5</v>
-      </c>
-      <c r="I3" s="16">
-        <v>6</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="B3" s="19"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9">
         <v>7</v>
       </c>
-      <c r="K3" s="16">
+      <c r="L3" s="9">
         <v>8</v>
       </c>
-      <c r="L3" s="16">
+      <c r="M3" s="9">
         <v>9</v>
       </c>
-      <c r="M3" s="16">
+      <c r="N3" s="9">
         <v>10</v>
       </c>
-      <c r="N3" s="16">
+      <c r="O3" s="9">
         <v>11</v>
       </c>
-      <c r="O3" s="16">
+      <c r="P3" s="9">
         <v>12</v>
       </c>
-      <c r="P3" s="16">
+      <c r="Q3" s="9">
         <v>13</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="R3" s="9">
         <v>14</v>
       </c>
-      <c r="R3" s="16">
+      <c r="S3" s="9">
         <v>15</v>
       </c>
-      <c r="S3" s="16">
+      <c r="T3" s="9">
         <v>16</v>
       </c>
-      <c r="T3" s="16">
+      <c r="U3" s="9">
         <v>17</v>
       </c>
-      <c r="U3" s="16">
+      <c r="V3" s="9">
         <v>18</v>
       </c>
-      <c r="V3" s="16">
+      <c r="W3" s="9">
         <v>19</v>
       </c>
-      <c r="W3" s="16">
+      <c r="X3" s="9">
         <v>20</v>
       </c>
-      <c r="X3" s="16">
+      <c r="Y3" s="9">
         <v>21</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Z3" s="9">
         <v>22</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="AA3" s="9">
         <v>23</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AB3" s="9">
         <v>24</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AC3" s="9">
         <v>25</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AD3" s="9">
         <v>26</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AE3" s="9">
         <v>27</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AF3" s="9">
         <v>28</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AG3" s="9">
         <v>29</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AH3" s="9">
         <v>30</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AI3" s="9">
         <v>31</v>
       </c>
-      <c r="AI3" s="16">
+      <c r="AJ3" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3982,10 +4094,10 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="6"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="U4" s="6"/>
+      <c r="U4" s="4"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
@@ -3993,41 +4105,44 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
-      <c r="AC4" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="17">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="17">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="17">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="17">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="17">
-        <v>3</v>
-      </c>
-      <c r="AI4" s="17">
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -4035,86 +4150,89 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="17">
-        <v>1</v>
-      </c>
-      <c r="O5" s="17">
-        <v>1</v>
-      </c>
-      <c r="P5" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>2</v>
-      </c>
-      <c r="R5" s="18">
-        <v>2</v>
-      </c>
-      <c r="S5" s="18">
-        <v>3</v>
-      </c>
-      <c r="T5" s="18">
-        <v>3</v>
-      </c>
-      <c r="U5" s="17">
-        <v>3</v>
-      </c>
-      <c r="V5" s="17">
-        <v>4</v>
-      </c>
-      <c r="W5" s="17">
-        <v>4</v>
-      </c>
-      <c r="X5" s="17">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="17">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI5" s="17">
+      <c r="N5" s="6"/>
+      <c r="O5" s="10">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>2</v>
+      </c>
+      <c r="R5" s="10">
+        <v>2</v>
+      </c>
+      <c r="S5" s="11">
+        <v>2</v>
+      </c>
+      <c r="T5" s="11">
+        <v>3</v>
+      </c>
+      <c r="U5" s="11">
+        <v>3</v>
+      </c>
+      <c r="V5" s="10">
+        <v>3</v>
+      </c>
+      <c r="W5" s="10">
+        <v>4</v>
+      </c>
+      <c r="X5" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -4125,166 +4243,172 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="18">
-        <v>1</v>
-      </c>
-      <c r="R6" s="17">
-        <v>1</v>
-      </c>
-      <c r="S6" s="17">
-        <v>2</v>
-      </c>
-      <c r="T6" s="17">
-        <v>2</v>
-      </c>
-      <c r="U6" s="17">
-        <v>2</v>
-      </c>
-      <c r="V6" s="17">
-        <v>3</v>
-      </c>
-      <c r="W6" s="17">
-        <v>3</v>
-      </c>
-      <c r="X6" s="17">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="17">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="17">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="17">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="17">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="17">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE6" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG6" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH6" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI6" s="17">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="11">
+        <v>1</v>
+      </c>
+      <c r="S6" s="10">
+        <v>1</v>
+      </c>
+      <c r="T6" s="10">
+        <v>2</v>
+      </c>
+      <c r="U6" s="10">
+        <v>2</v>
+      </c>
+      <c r="V6" s="10">
+        <v>2</v>
+      </c>
+      <c r="W6" s="10">
+        <v>3</v>
+      </c>
+      <c r="X6" s="10">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="17">
-        <v>1</v>
-      </c>
-      <c r="N7" s="17">
-        <v>1</v>
-      </c>
-      <c r="O7" s="18">
-        <v>2</v>
-      </c>
-      <c r="P7" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>2</v>
-      </c>
-      <c r="R7" s="17">
-        <v>3</v>
-      </c>
-      <c r="S7" s="17">
-        <v>3</v>
-      </c>
-      <c r="T7" s="17">
-        <v>3</v>
-      </c>
-      <c r="U7" s="17">
-        <v>4</v>
-      </c>
-      <c r="V7" s="17">
-        <v>4</v>
-      </c>
-      <c r="W7" s="17">
-        <v>5</v>
-      </c>
-      <c r="X7" s="17">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI7" s="17">
+      <c r="M7" s="6"/>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10">
+        <v>1</v>
+      </c>
+      <c r="P7" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>2</v>
+      </c>
+      <c r="R7" s="11">
+        <v>2</v>
+      </c>
+      <c r="S7" s="10">
+        <v>3</v>
+      </c>
+      <c r="T7" s="10">
+        <v>3</v>
+      </c>
+      <c r="U7" s="10">
+        <v>3</v>
+      </c>
+      <c r="V7" s="10">
+        <v>4</v>
+      </c>
+      <c r="W7" s="10">
+        <v>4</v>
+      </c>
+      <c r="X7" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -4296,62 +4420,65 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="6"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="17">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="18">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="18">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="18">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="17">
-        <v>3</v>
-      </c>
-      <c r="AD8" s="17">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="17">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="17">
-        <v>4</v>
-      </c>
-      <c r="AG8" s="17">
-        <v>4</v>
-      </c>
-      <c r="AH8" s="17">
-        <v>5</v>
-      </c>
-      <c r="AI8" s="17">
+      <c r="X8" s="6"/>
+      <c r="Y8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="11">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -4363,54 +4490,57 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="4"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="U9" s="6"/>
+      <c r="U9" s="4"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="17">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="17">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="18">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="18">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="18">
-        <v>2</v>
-      </c>
-      <c r="AG9" s="17">
-        <v>3</v>
-      </c>
-      <c r="AH9" s="17">
-        <v>3</v>
-      </c>
-      <c r="AI9" s="17">
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="11">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -4422,167 +4552,173 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="17">
-        <v>1</v>
-      </c>
-      <c r="T10" s="17">
-        <v>1</v>
-      </c>
-      <c r="U10" s="18">
-        <v>2</v>
-      </c>
-      <c r="V10" s="18">
-        <v>2</v>
-      </c>
-      <c r="W10" s="18">
-        <v>2</v>
-      </c>
-      <c r="X10" s="17">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="17">
-        <v>3</v>
-      </c>
-      <c r="Z10" s="17">
-        <v>3</v>
-      </c>
-      <c r="AA10" s="17">
-        <v>4</v>
-      </c>
-      <c r="AB10" s="17">
-        <v>4</v>
-      </c>
-      <c r="AC10" s="17">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="17">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="17">
-        <v>5</v>
-      </c>
-      <c r="AF10" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG10" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH10" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI10" s="17">
+      <c r="R10" s="6"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="10">
+        <v>1</v>
+      </c>
+      <c r="V10" s="11">
+        <v>2</v>
+      </c>
+      <c r="W10" s="11">
+        <v>2</v>
+      </c>
+      <c r="X10" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="17">
-        <v>1</v>
-      </c>
-      <c r="K11" s="17">
-        <v>1</v>
-      </c>
-      <c r="L11" s="17">
-        <v>2</v>
-      </c>
-      <c r="M11" s="17">
-        <v>2</v>
-      </c>
-      <c r="N11" s="17">
-        <v>2</v>
-      </c>
-      <c r="O11" s="17">
-        <v>3</v>
-      </c>
-      <c r="P11" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>3</v>
-      </c>
-      <c r="R11" s="18">
-        <v>4</v>
-      </c>
-      <c r="S11" s="17">
-        <v>4</v>
-      </c>
-      <c r="T11" s="17">
-        <v>5</v>
-      </c>
-      <c r="U11" s="17">
-        <v>5</v>
-      </c>
-      <c r="V11" s="17">
-        <v>5</v>
-      </c>
-      <c r="W11" s="17">
-        <v>6</v>
-      </c>
-      <c r="X11" s="17">
-        <v>6</v>
-      </c>
-      <c r="Y11" s="17">
-        <v>6</v>
-      </c>
-      <c r="Z11" s="17">
-        <v>6</v>
-      </c>
-      <c r="AA11" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB11" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC11" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD11" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE11" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF11" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG11" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH11" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI11" s="17">
+      <c r="J11" s="6"/>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10">
+        <v>2</v>
+      </c>
+      <c r="N11" s="10">
+        <v>2</v>
+      </c>
+      <c r="O11" s="10">
+        <v>2</v>
+      </c>
+      <c r="P11" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>3</v>
+      </c>
+      <c r="R11" s="11">
+        <v>3</v>
+      </c>
+      <c r="S11" s="11">
+        <v>4</v>
+      </c>
+      <c r="T11" s="10">
+        <v>4</v>
+      </c>
+      <c r="U11" s="10">
+        <v>5</v>
+      </c>
+      <c r="V11" s="10">
+        <v>5</v>
+      </c>
+      <c r="W11" s="10">
+        <v>5</v>
+      </c>
+      <c r="X11" s="10">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ11" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -4590,86 +4726,89 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="17">
-        <v>1</v>
-      </c>
-      <c r="O12" s="17">
-        <v>1</v>
-      </c>
-      <c r="P12" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>2</v>
-      </c>
-      <c r="R12" s="18">
-        <v>2</v>
-      </c>
-      <c r="S12" s="17">
-        <v>3</v>
-      </c>
-      <c r="T12" s="17">
-        <v>3</v>
-      </c>
-      <c r="U12" s="17">
-        <v>3</v>
-      </c>
-      <c r="V12" s="17">
-        <v>4</v>
-      </c>
-      <c r="W12" s="17">
-        <v>4</v>
-      </c>
-      <c r="X12" s="17">
-        <v>5</v>
-      </c>
-      <c r="Y12" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="17">
-        <v>5</v>
-      </c>
-      <c r="AA12" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB12" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC12" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD12" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE12" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF12" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG12" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH12" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI12" s="17">
+      <c r="N12" s="6"/>
+      <c r="O12" s="10">
+        <v>1</v>
+      </c>
+      <c r="P12" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>2</v>
+      </c>
+      <c r="R12" s="11">
+        <v>2</v>
+      </c>
+      <c r="S12" s="11">
+        <v>2</v>
+      </c>
+      <c r="T12" s="10">
+        <v>3</v>
+      </c>
+      <c r="U12" s="10">
+        <v>3</v>
+      </c>
+      <c r="V12" s="10">
+        <v>3</v>
+      </c>
+      <c r="W12" s="10">
+        <v>4</v>
+      </c>
+      <c r="X12" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ12" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -4681,74 +4820,77 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="18">
-        <v>1</v>
-      </c>
-      <c r="S13" s="17">
-        <v>1</v>
-      </c>
-      <c r="T13" s="17">
-        <v>2</v>
-      </c>
-      <c r="U13" s="18">
-        <v>2</v>
-      </c>
-      <c r="V13" s="18">
-        <v>2</v>
-      </c>
-      <c r="W13" s="18">
-        <v>3</v>
-      </c>
-      <c r="X13" s="17">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="17">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="17">
-        <v>4</v>
-      </c>
-      <c r="AA13" s="17">
-        <v>4</v>
-      </c>
-      <c r="AB13" s="17">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="17">
-        <v>5</v>
-      </c>
-      <c r="AD13" s="17">
-        <v>5</v>
-      </c>
-      <c r="AE13" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF13" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG13" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH13" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI13" s="17">
+      <c r="R13" s="6"/>
+      <c r="S13" s="11">
+        <v>1</v>
+      </c>
+      <c r="T13" s="10">
+        <v>1</v>
+      </c>
+      <c r="U13" s="10">
+        <v>2</v>
+      </c>
+      <c r="V13" s="11">
+        <v>2</v>
+      </c>
+      <c r="W13" s="11">
+        <v>2</v>
+      </c>
+      <c r="X13" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI13" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ13" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -4760,254 +4902,263 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="4"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="17">
-        <v>1</v>
-      </c>
-      <c r="V14" s="17">
-        <v>1</v>
-      </c>
-      <c r="W14" s="18">
-        <v>2</v>
-      </c>
-      <c r="X14" s="18">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="18">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>3</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>4</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>4</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>5</v>
-      </c>
-      <c r="AF14" s="17">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="17">
-        <v>5</v>
-      </c>
-      <c r="AH14" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI14" s="17">
+      <c r="U14" s="4"/>
+      <c r="V14" s="10">
+        <v>1</v>
+      </c>
+      <c r="W14" s="10">
+        <v>1</v>
+      </c>
+      <c r="X14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH14" s="10">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ14" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="17">
-        <v>1</v>
-      </c>
-      <c r="N15" s="17">
-        <v>1</v>
-      </c>
-      <c r="O15" s="17">
-        <v>2</v>
-      </c>
-      <c r="P15" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>2</v>
-      </c>
-      <c r="R15" s="18">
-        <v>3</v>
-      </c>
-      <c r="S15" s="18">
-        <v>3</v>
-      </c>
-      <c r="T15" s="17">
-        <v>3</v>
-      </c>
-      <c r="U15" s="17">
-        <v>4</v>
-      </c>
-      <c r="V15" s="17">
-        <v>4</v>
-      </c>
-      <c r="W15" s="17">
-        <v>5</v>
-      </c>
-      <c r="X15" s="17">
-        <v>5</v>
-      </c>
-      <c r="Y15" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="17">
-        <v>6</v>
-      </c>
-      <c r="AA15" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB15" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC15" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD15" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE15" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF15" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG15" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH15" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI15" s="17">
+      <c r="M15" s="6"/>
+      <c r="N15" s="10">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1</v>
+      </c>
+      <c r="P15" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>2</v>
+      </c>
+      <c r="R15" s="11">
+        <v>2</v>
+      </c>
+      <c r="S15" s="11">
+        <v>3</v>
+      </c>
+      <c r="T15" s="11">
+        <v>3</v>
+      </c>
+      <c r="U15" s="10">
+        <v>3</v>
+      </c>
+      <c r="V15" s="10">
+        <v>4</v>
+      </c>
+      <c r="W15" s="10">
+        <v>4</v>
+      </c>
+      <c r="X15" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH15" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="17">
-        <v>1</v>
-      </c>
-      <c r="J16" s="17">
-        <v>1</v>
-      </c>
-      <c r="K16" s="17">
-        <v>2</v>
-      </c>
-      <c r="L16" s="17">
-        <v>2</v>
-      </c>
-      <c r="M16" s="17">
-        <v>2</v>
-      </c>
-      <c r="N16" s="17">
-        <v>3</v>
-      </c>
-      <c r="O16" s="17">
-        <v>3</v>
-      </c>
-      <c r="P16" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="18">
-        <v>4</v>
-      </c>
-      <c r="R16" s="18">
-        <v>4</v>
-      </c>
-      <c r="S16" s="17">
-        <v>5</v>
-      </c>
-      <c r="T16" s="17">
-        <v>5</v>
-      </c>
-      <c r="U16" s="17">
-        <v>5</v>
-      </c>
-      <c r="V16" s="17">
-        <v>6</v>
-      </c>
-      <c r="W16" s="17">
-        <v>6</v>
-      </c>
-      <c r="X16" s="17">
-        <v>6</v>
-      </c>
-      <c r="Y16" s="17">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="17">
-        <v>6</v>
-      </c>
-      <c r="AA16" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB16" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC16" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD16" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE16" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF16" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG16" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH16" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI16" s="17">
+      <c r="I16" s="6"/>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <v>1</v>
+      </c>
+      <c r="L16" s="10">
+        <v>2</v>
+      </c>
+      <c r="M16" s="10">
+        <v>2</v>
+      </c>
+      <c r="N16" s="10">
+        <v>2</v>
+      </c>
+      <c r="O16" s="10">
+        <v>3</v>
+      </c>
+      <c r="P16" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>3</v>
+      </c>
+      <c r="R16" s="11">
+        <v>4</v>
+      </c>
+      <c r="S16" s="11">
+        <v>4</v>
+      </c>
+      <c r="T16" s="10">
+        <v>5</v>
+      </c>
+      <c r="U16" s="10">
+        <v>5</v>
+      </c>
+      <c r="V16" s="10">
+        <v>5</v>
+      </c>
+      <c r="W16" s="10">
+        <v>6</v>
+      </c>
+      <c r="X16" s="10">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="4">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="4"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -5017,78 +5168,81 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="17">
-        <v>1</v>
-      </c>
-      <c r="R17" s="17">
-        <v>1</v>
-      </c>
-      <c r="S17" s="17">
-        <v>2</v>
-      </c>
-      <c r="T17" s="17">
-        <v>2</v>
-      </c>
-      <c r="U17" s="17">
-        <v>2</v>
-      </c>
-      <c r="V17" s="17">
-        <v>3</v>
-      </c>
-      <c r="W17" s="17">
-        <v>3</v>
-      </c>
-      <c r="X17" s="18">
-        <v>3</v>
-      </c>
-      <c r="Y17" s="18">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="18">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="17">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="17">
-        <v>5</v>
-      </c>
-      <c r="AC17" s="17">
-        <v>5</v>
-      </c>
-      <c r="AD17" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE17" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF17" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG17" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH17" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI17" s="17">
+      <c r="P17" s="6"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="10">
+        <v>1</v>
+      </c>
+      <c r="S17" s="10">
+        <v>1</v>
+      </c>
+      <c r="T17" s="10">
+        <v>2</v>
+      </c>
+      <c r="U17" s="10">
+        <v>2</v>
+      </c>
+      <c r="V17" s="10">
+        <v>2</v>
+      </c>
+      <c r="W17" s="10">
+        <v>3</v>
+      </c>
+      <c r="X17" s="10">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF17" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH17" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI17" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ17" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="4"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -5098,448 +5252,463 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="4"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="17">
-        <v>1</v>
-      </c>
-      <c r="U18" s="17">
-        <v>1</v>
-      </c>
-      <c r="V18" s="17">
-        <v>2</v>
-      </c>
-      <c r="W18" s="17">
-        <v>2</v>
-      </c>
-      <c r="X18" s="17">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>3</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>3</v>
-      </c>
-      <c r="AA18" s="18">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="18">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="18">
-        <v>4</v>
-      </c>
-      <c r="AD18" s="17">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="17">
-        <v>5</v>
-      </c>
-      <c r="AF18" s="17">
-        <v>5</v>
-      </c>
-      <c r="AG18" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH18" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI18" s="17">
+      <c r="S18" s="4"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="10">
+        <v>1</v>
+      </c>
+      <c r="V18" s="10">
+        <v>1</v>
+      </c>
+      <c r="W18" s="10">
+        <v>2</v>
+      </c>
+      <c r="X18" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC18" s="11">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="11">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH18" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ18" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="17">
-        <v>1</v>
-      </c>
-      <c r="N19" s="17">
-        <v>1</v>
-      </c>
-      <c r="O19" s="17">
-        <v>2</v>
-      </c>
-      <c r="P19" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>2</v>
-      </c>
-      <c r="R19" s="17">
-        <v>3</v>
-      </c>
-      <c r="S19" s="17">
-        <v>3</v>
-      </c>
-      <c r="T19" s="18">
-        <v>3</v>
-      </c>
-      <c r="U19" s="18">
-        <v>4</v>
-      </c>
-      <c r="V19" s="18">
-        <v>4</v>
-      </c>
-      <c r="W19" s="17">
-        <v>5</v>
-      </c>
-      <c r="X19" s="17">
-        <v>5</v>
-      </c>
-      <c r="Y19" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="17">
-        <v>6</v>
-      </c>
-      <c r="AA19" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB19" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC19" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD19" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE19" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF19" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG19" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH19" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI19" s="17">
+      <c r="M19" s="6"/>
+      <c r="N19" s="10">
+        <v>1</v>
+      </c>
+      <c r="O19" s="10">
+        <v>1</v>
+      </c>
+      <c r="P19" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>2</v>
+      </c>
+      <c r="R19" s="10">
+        <v>2</v>
+      </c>
+      <c r="S19" s="10">
+        <v>3</v>
+      </c>
+      <c r="T19" s="10">
+        <v>3</v>
+      </c>
+      <c r="U19" s="11">
+        <v>3</v>
+      </c>
+      <c r="V19" s="11">
+        <v>4</v>
+      </c>
+      <c r="W19" s="11">
+        <v>4</v>
+      </c>
+      <c r="X19" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ19" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="4"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="17">
-        <v>1</v>
-      </c>
-      <c r="L20" s="17">
-        <v>1</v>
-      </c>
-      <c r="M20" s="17">
-        <v>2</v>
-      </c>
-      <c r="N20" s="17">
-        <v>2</v>
-      </c>
-      <c r="O20" s="18">
-        <v>2</v>
-      </c>
-      <c r="P20" s="18">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="18">
-        <v>3</v>
-      </c>
-      <c r="R20" s="17">
-        <v>3</v>
-      </c>
-      <c r="S20" s="17">
-        <v>4</v>
-      </c>
-      <c r="T20" s="17">
-        <v>4</v>
-      </c>
-      <c r="U20" s="17">
-        <v>5</v>
-      </c>
-      <c r="V20" s="17">
-        <v>5</v>
-      </c>
-      <c r="W20" s="17">
-        <v>5</v>
-      </c>
-      <c r="X20" s="17">
-        <v>6</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>6</v>
-      </c>
-      <c r="Z20" s="17">
-        <v>6</v>
-      </c>
-      <c r="AA20" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB20" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC20" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD20" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE20" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF20" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG20" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH20" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI20" s="17">
+      <c r="K20" s="6"/>
+      <c r="L20" s="10">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10">
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
+        <v>2</v>
+      </c>
+      <c r="O20" s="10">
+        <v>2</v>
+      </c>
+      <c r="P20" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>3</v>
+      </c>
+      <c r="R20" s="11">
+        <v>3</v>
+      </c>
+      <c r="S20" s="10">
+        <v>3</v>
+      </c>
+      <c r="T20" s="10">
+        <v>4</v>
+      </c>
+      <c r="U20" s="10">
+        <v>4</v>
+      </c>
+      <c r="V20" s="10">
+        <v>5</v>
+      </c>
+      <c r="W20" s="10">
+        <v>5</v>
+      </c>
+      <c r="X20" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE20" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF20" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG20" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH20" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI20" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ20" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4">
-        <v>5</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="17">
-        <v>1</v>
-      </c>
-      <c r="M21" s="17">
-        <v>1</v>
-      </c>
-      <c r="N21" s="17">
-        <v>2</v>
-      </c>
-      <c r="O21" s="17">
-        <v>2</v>
-      </c>
-      <c r="P21" s="18">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="18">
-        <v>3</v>
-      </c>
-      <c r="R21" s="18">
-        <v>3</v>
-      </c>
-      <c r="S21" s="17">
-        <v>3</v>
-      </c>
-      <c r="T21" s="17">
-        <v>4</v>
-      </c>
-      <c r="U21" s="17">
-        <v>4</v>
-      </c>
-      <c r="V21" s="17">
-        <v>5</v>
-      </c>
-      <c r="W21" s="17">
-        <v>5</v>
-      </c>
-      <c r="X21" s="17">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="17">
-        <v>6</v>
-      </c>
-      <c r="Z21" s="17">
-        <v>6</v>
-      </c>
-      <c r="AA21" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB21" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC21" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD21" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE21" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF21" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG21" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH21" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI21" s="17">
+      <c r="L21" s="6"/>
+      <c r="M21" s="10">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10">
+        <v>2</v>
+      </c>
+      <c r="P21" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>2</v>
+      </c>
+      <c r="R21" s="11">
+        <v>3</v>
+      </c>
+      <c r="S21" s="11">
+        <v>3</v>
+      </c>
+      <c r="T21" s="10">
+        <v>3</v>
+      </c>
+      <c r="U21" s="10">
+        <v>4</v>
+      </c>
+      <c r="V21" s="10">
+        <v>4</v>
+      </c>
+      <c r="W21" s="10">
+        <v>5</v>
+      </c>
+      <c r="X21" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI21" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ21" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="17">
-        <v>1</v>
-      </c>
-      <c r="G22" s="17">
-        <v>1</v>
-      </c>
-      <c r="H22" s="17">
-        <v>2</v>
-      </c>
-      <c r="I22" s="17">
-        <v>2</v>
-      </c>
-      <c r="J22" s="18">
-        <v>2</v>
-      </c>
-      <c r="K22" s="18">
-        <v>3</v>
-      </c>
-      <c r="L22" s="18">
-        <v>3</v>
-      </c>
-      <c r="M22" s="17">
-        <v>3</v>
-      </c>
-      <c r="N22" s="17">
-        <v>4</v>
-      </c>
-      <c r="O22" s="17">
-        <v>4</v>
-      </c>
-      <c r="P22" s="17">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>5</v>
-      </c>
-      <c r="R22" s="17">
-        <v>5</v>
-      </c>
-      <c r="S22" s="17">
-        <v>6</v>
-      </c>
-      <c r="T22" s="17">
-        <v>6</v>
-      </c>
-      <c r="U22" s="17">
-        <v>6</v>
-      </c>
-      <c r="V22" s="17">
-        <v>6</v>
-      </c>
-      <c r="W22" s="17">
-        <v>6</v>
-      </c>
-      <c r="X22" s="17">
-        <v>6</v>
-      </c>
-      <c r="Y22" s="17">
-        <v>6</v>
-      </c>
-      <c r="Z22" s="17">
-        <v>6</v>
-      </c>
-      <c r="AA22" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB22" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC22" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD22" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE22" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF22" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG22" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH22" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI22" s="17">
+      <c r="F22" s="4"/>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10">
+        <v>2</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2</v>
+      </c>
+      <c r="K22" s="11">
+        <v>2</v>
+      </c>
+      <c r="L22" s="11">
+        <v>3</v>
+      </c>
+      <c r="M22" s="11">
+        <v>3</v>
+      </c>
+      <c r="N22" s="10">
+        <v>3</v>
+      </c>
+      <c r="O22" s="10">
+        <v>4</v>
+      </c>
+      <c r="P22" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>5</v>
+      </c>
+      <c r="R22" s="10">
+        <v>5</v>
+      </c>
+      <c r="S22" s="10">
+        <v>5</v>
+      </c>
+      <c r="T22" s="10">
+        <v>6</v>
+      </c>
+      <c r="U22" s="10">
+        <v>6</v>
+      </c>
+      <c r="V22" s="10">
+        <v>6</v>
+      </c>
+      <c r="W22" s="10">
+        <v>6</v>
+      </c>
+      <c r="X22" s="10">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE22" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF22" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH22" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI22" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ22" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -5548,186 +5717,192 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="17">
-        <v>1</v>
-      </c>
-      <c r="P23" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>2</v>
-      </c>
-      <c r="R23" s="17">
-        <v>2</v>
-      </c>
-      <c r="S23" s="18">
-        <v>2</v>
-      </c>
-      <c r="T23" s="18">
-        <v>3</v>
-      </c>
-      <c r="U23" s="18">
-        <v>3</v>
-      </c>
-      <c r="V23" s="17">
-        <v>3</v>
-      </c>
-      <c r="W23" s="17">
-        <v>4</v>
-      </c>
-      <c r="X23" s="17">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="17">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="17">
-        <v>5</v>
-      </c>
-      <c r="AB23" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC23" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD23" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE23" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF23" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG23" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH23" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI23" s="17">
+      <c r="O23" s="6"/>
+      <c r="P23" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>1</v>
+      </c>
+      <c r="R23" s="10">
+        <v>2</v>
+      </c>
+      <c r="S23" s="10">
+        <v>2</v>
+      </c>
+      <c r="T23" s="11">
+        <v>2</v>
+      </c>
+      <c r="U23" s="11">
+        <v>3</v>
+      </c>
+      <c r="V23" s="11">
+        <v>3</v>
+      </c>
+      <c r="W23" s="10">
+        <v>3</v>
+      </c>
+      <c r="X23" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>5</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD23" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE23" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF23" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG23" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH23" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI23" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ23" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="4">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="17">
-        <v>1</v>
-      </c>
-      <c r="G24" s="17">
-        <v>1</v>
-      </c>
-      <c r="H24" s="17">
-        <v>2</v>
-      </c>
-      <c r="I24" s="17">
-        <v>2</v>
-      </c>
-      <c r="J24" s="18">
-        <v>2</v>
-      </c>
-      <c r="K24" s="18">
-        <v>3</v>
-      </c>
-      <c r="L24" s="18">
-        <v>3</v>
-      </c>
-      <c r="M24" s="17">
-        <v>3</v>
-      </c>
-      <c r="N24" s="17">
-        <v>4</v>
-      </c>
-      <c r="O24" s="17">
-        <v>4</v>
-      </c>
-      <c r="P24" s="17">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="17">
-        <v>5</v>
-      </c>
-      <c r="R24" s="17">
-        <v>5</v>
-      </c>
-      <c r="S24" s="17">
-        <v>6</v>
-      </c>
-      <c r="T24" s="17">
-        <v>6</v>
-      </c>
-      <c r="U24" s="17">
-        <v>6</v>
-      </c>
-      <c r="V24" s="17">
-        <v>6</v>
-      </c>
-      <c r="W24" s="17">
-        <v>6</v>
-      </c>
-      <c r="X24" s="17">
-        <v>6</v>
-      </c>
-      <c r="Y24" s="17">
-        <v>6</v>
-      </c>
-      <c r="Z24" s="17">
-        <v>6</v>
-      </c>
-      <c r="AA24" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB24" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC24" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD24" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE24" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF24" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG24" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH24" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI24" s="17">
+      <c r="F24" s="4"/>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <v>2</v>
+      </c>
+      <c r="J24" s="10">
+        <v>2</v>
+      </c>
+      <c r="K24" s="11">
+        <v>2</v>
+      </c>
+      <c r="L24" s="11">
+        <v>3</v>
+      </c>
+      <c r="M24" s="11">
+        <v>3</v>
+      </c>
+      <c r="N24" s="10">
+        <v>3</v>
+      </c>
+      <c r="O24" s="10">
+        <v>4</v>
+      </c>
+      <c r="P24" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>5</v>
+      </c>
+      <c r="R24" s="10">
+        <v>5</v>
+      </c>
+      <c r="S24" s="10">
+        <v>5</v>
+      </c>
+      <c r="T24" s="10">
+        <v>6</v>
+      </c>
+      <c r="U24" s="10">
+        <v>6</v>
+      </c>
+      <c r="V24" s="10">
+        <v>6</v>
+      </c>
+      <c r="W24" s="10">
+        <v>6</v>
+      </c>
+      <c r="X24" s="10">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB24" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD24" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG24" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH24" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI24" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ24" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -5738,70 +5913,72 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="17">
-        <v>1</v>
-      </c>
-      <c r="R25" s="17">
-        <v>1</v>
-      </c>
-      <c r="S25" s="17">
-        <v>2</v>
-      </c>
-      <c r="T25" s="17">
-        <v>2</v>
-      </c>
-      <c r="U25" s="18">
-        <v>2</v>
-      </c>
-      <c r="V25" s="18">
-        <v>3</v>
-      </c>
-      <c r="W25" s="18">
-        <v>3</v>
-      </c>
-      <c r="X25" s="17">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="17">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="17">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="17">
-        <v>5</v>
-      </c>
-      <c r="AB25" s="17">
-        <v>5</v>
-      </c>
-      <c r="AC25" s="17">
-        <v>5</v>
-      </c>
-      <c r="AD25" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE25" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF25" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG25" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH25" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI25" s="17">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="10">
+        <v>1</v>
+      </c>
+      <c r="S25" s="10">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10">
+        <v>2</v>
+      </c>
+      <c r="U25" s="10">
+        <v>2</v>
+      </c>
+      <c r="V25" s="11">
+        <v>2</v>
+      </c>
+      <c r="W25" s="11">
+        <v>3</v>
+      </c>
+      <c r="X25" s="11">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>4</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG25" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH25" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI25" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ25" s="10">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5809,279 +5986,286 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9:AI9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="1" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:36" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="13"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="18"/>
     </row>
-    <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="1">
+    <row r="2" spans="1:36" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="1">
         <v>700</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>750</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>800</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>850</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>900</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>950</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1000</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1050</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1100</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>1150</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>1200</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>1250</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>1300</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>1350</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>1400</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>1450</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>1500</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>1550</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>1600</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>1650</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>1700</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>1750</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>1800</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AB2" s="1">
         <v>1850</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>1900</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AD2" s="1">
         <v>1950</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AE2" s="1">
         <v>2000</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AF2" s="1">
         <v>2050</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AG2" s="1">
         <v>2100</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AH2" s="1">
         <v>2150</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AI2" s="1">
         <v>2200</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AJ2" s="1">
         <v>2250</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16">
-        <v>1</v>
-      </c>
-      <c r="E3" s="16">
-        <v>2</v>
-      </c>
-      <c r="F3" s="16">
-        <v>3</v>
-      </c>
-      <c r="G3" s="16">
-        <v>4</v>
-      </c>
-      <c r="H3" s="16">
-        <v>5</v>
-      </c>
-      <c r="I3" s="16">
-        <v>6</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="B3" s="19"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9">
+        <v>6</v>
+      </c>
+      <c r="K3" s="9">
         <v>7</v>
       </c>
-      <c r="K3" s="16">
+      <c r="L3" s="9">
         <v>8</v>
       </c>
-      <c r="L3" s="16">
+      <c r="M3" s="9">
         <v>9</v>
       </c>
-      <c r="M3" s="16">
+      <c r="N3" s="9">
         <v>10</v>
       </c>
-      <c r="N3" s="16">
+      <c r="O3" s="9">
         <v>11</v>
       </c>
-      <c r="O3" s="16">
+      <c r="P3" s="9">
         <v>12</v>
       </c>
-      <c r="P3" s="16">
+      <c r="Q3" s="9">
         <v>13</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="R3" s="9">
         <v>14</v>
       </c>
-      <c r="R3" s="16">
+      <c r="S3" s="9">
         <v>15</v>
       </c>
-      <c r="S3" s="16">
+      <c r="T3" s="9">
         <v>16</v>
       </c>
-      <c r="T3" s="16">
+      <c r="U3" s="9">
         <v>17</v>
       </c>
-      <c r="U3" s="16">
+      <c r="V3" s="9">
         <v>18</v>
       </c>
-      <c r="V3" s="16">
+      <c r="W3" s="9">
         <v>19</v>
       </c>
-      <c r="W3" s="16">
+      <c r="X3" s="9">
         <v>20</v>
       </c>
-      <c r="X3" s="16">
+      <c r="Y3" s="9">
         <v>21</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Z3" s="9">
         <v>22</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="AA3" s="9">
         <v>23</v>
       </c>
-      <c r="AA3" s="16">
+      <c r="AB3" s="9">
         <v>24</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AC3" s="9">
         <v>25</v>
       </c>
-      <c r="AC3" s="16">
+      <c r="AD3" s="9">
         <v>26</v>
       </c>
-      <c r="AD3" s="16">
+      <c r="AE3" s="9">
         <v>27</v>
       </c>
-      <c r="AE3" s="16">
+      <c r="AF3" s="9">
         <v>28</v>
       </c>
-      <c r="AF3" s="16">
+      <c r="AG3" s="9">
         <v>29</v>
       </c>
-      <c r="AG3" s="16">
+      <c r="AH3" s="9">
         <v>30</v>
       </c>
-      <c r="AH3" s="16">
+      <c r="AI3" s="9">
         <v>31</v>
       </c>
-      <c r="AI3" s="16">
+      <c r="AJ3" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -6092,77 +6276,80 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="17">
-        <v>1</v>
-      </c>
-      <c r="R4" s="17">
-        <v>1</v>
-      </c>
-      <c r="S4" s="18">
-        <v>2</v>
-      </c>
-      <c r="T4" s="18">
-        <v>2</v>
-      </c>
-      <c r="U4" s="18">
-        <v>2</v>
-      </c>
-      <c r="V4" s="17">
-        <v>3</v>
-      </c>
-      <c r="W4" s="17">
-        <v>3</v>
-      </c>
-      <c r="X4" s="17">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="17">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="17">
-        <v>4</v>
-      </c>
-      <c r="AA4" s="17">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="17">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="17">
-        <v>5</v>
-      </c>
-      <c r="AD4" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE4" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF4" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG4" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI4" s="17">
+      <c r="Q4" s="6"/>
+      <c r="R4" s="10">
+        <v>1</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="11">
+        <v>2</v>
+      </c>
+      <c r="U4" s="11">
+        <v>2</v>
+      </c>
+      <c r="V4" s="11">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="10">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ4" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -6171,83 +6358,86 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="17">
-        <v>1</v>
-      </c>
-      <c r="P5" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>2</v>
-      </c>
-      <c r="R5" s="17">
-        <v>2</v>
-      </c>
-      <c r="S5" s="18">
-        <v>2</v>
-      </c>
-      <c r="T5" s="18">
-        <v>3</v>
-      </c>
-      <c r="U5" s="18">
-        <v>3</v>
-      </c>
-      <c r="V5" s="17">
-        <v>3</v>
-      </c>
-      <c r="W5" s="17">
-        <v>4</v>
-      </c>
-      <c r="X5" s="17">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="17">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="17">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH5" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI5" s="17">
+      <c r="O5" s="6"/>
+      <c r="P5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>1</v>
+      </c>
+      <c r="R5" s="10">
+        <v>2</v>
+      </c>
+      <c r="S5" s="10">
+        <v>2</v>
+      </c>
+      <c r="T5" s="11">
+        <v>2</v>
+      </c>
+      <c r="U5" s="11">
+        <v>3</v>
+      </c>
+      <c r="V5" s="11">
+        <v>3</v>
+      </c>
+      <c r="W5" s="10">
+        <v>3</v>
+      </c>
+      <c r="X5" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -6257,169 +6447,175 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>1</v>
-      </c>
-      <c r="R6" s="18">
-        <v>2</v>
-      </c>
-      <c r="S6" s="18">
-        <v>2</v>
-      </c>
-      <c r="T6" s="18">
-        <v>2</v>
-      </c>
-      <c r="U6" s="17">
-        <v>3</v>
-      </c>
-      <c r="V6" s="17">
-        <v>3</v>
-      </c>
-      <c r="W6" s="17">
-        <v>3</v>
-      </c>
-      <c r="X6" s="17">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="17">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="17">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="17">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="17">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE6" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG6" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH6" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI6" s="17">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="10">
+        <v>1</v>
+      </c>
+      <c r="R6" s="10">
+        <v>1</v>
+      </c>
+      <c r="S6" s="11">
+        <v>2</v>
+      </c>
+      <c r="T6" s="11">
+        <v>2</v>
+      </c>
+      <c r="U6" s="11">
+        <v>2</v>
+      </c>
+      <c r="V6" s="10">
+        <v>3</v>
+      </c>
+      <c r="W6" s="10">
+        <v>3</v>
+      </c>
+      <c r="X6" s="10">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="17">
-        <v>1</v>
-      </c>
-      <c r="N7" s="17">
-        <v>1</v>
-      </c>
-      <c r="O7" s="17">
-        <v>2</v>
-      </c>
-      <c r="P7" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>2</v>
-      </c>
-      <c r="R7" s="17">
-        <v>3</v>
-      </c>
-      <c r="S7" s="17">
-        <v>3</v>
-      </c>
-      <c r="T7" s="18">
-        <v>3</v>
-      </c>
-      <c r="U7" s="18">
-        <v>4</v>
-      </c>
-      <c r="V7" s="18">
-        <v>4</v>
-      </c>
-      <c r="W7" s="17">
-        <v>5</v>
-      </c>
-      <c r="X7" s="17">
-        <v>5</v>
-      </c>
-      <c r="Y7" s="17">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH7" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI7" s="17">
+      <c r="M7" s="6"/>
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10">
+        <v>1</v>
+      </c>
+      <c r="P7" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>2</v>
+      </c>
+      <c r="R7" s="10">
+        <v>2</v>
+      </c>
+      <c r="S7" s="10">
+        <v>3</v>
+      </c>
+      <c r="T7" s="10">
+        <v>3</v>
+      </c>
+      <c r="U7" s="11">
+        <v>3</v>
+      </c>
+      <c r="V7" s="11">
+        <v>4</v>
+      </c>
+      <c r="W7" s="11">
+        <v>4</v>
+      </c>
+      <c r="X7" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6431,162 +6627,167 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="4"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="6"/>
+      <c r="U8" s="4"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-      <c r="X8" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="17">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="17">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="17">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="17">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="17">
-        <v>3</v>
-      </c>
-      <c r="AD8" s="17">
-        <v>3</v>
-      </c>
-      <c r="AE8" s="18">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="18">
-        <v>4</v>
-      </c>
-      <c r="AG8" s="18">
-        <v>4</v>
-      </c>
-      <c r="AH8" s="17">
-        <v>5</v>
-      </c>
-      <c r="AI8" s="17">
+      <c r="X8" s="6"/>
+      <c r="Y8" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2</v>
-      </c>
-      <c r="G9" s="17">
-        <v>2</v>
-      </c>
-      <c r="H9" s="17">
-        <v>2</v>
-      </c>
-      <c r="I9" s="17">
-        <v>3</v>
-      </c>
-      <c r="J9" s="17">
-        <v>3</v>
-      </c>
-      <c r="K9" s="17">
-        <v>3</v>
-      </c>
-      <c r="L9" s="17">
-        <v>4</v>
-      </c>
-      <c r="M9" s="17">
-        <v>4</v>
-      </c>
-      <c r="N9" s="17">
-        <v>5</v>
-      </c>
-      <c r="O9" s="17">
-        <v>5</v>
-      </c>
-      <c r="P9" s="17">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>6</v>
-      </c>
-      <c r="R9" s="17">
-        <v>6</v>
-      </c>
-      <c r="S9" s="17">
-        <v>6</v>
-      </c>
-      <c r="T9" s="17">
-        <v>6</v>
-      </c>
-      <c r="U9" s="17">
-        <v>6</v>
-      </c>
-      <c r="V9" s="17">
-        <v>6</v>
-      </c>
-      <c r="W9" s="17">
-        <v>6</v>
-      </c>
-      <c r="X9" s="17">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="17">
-        <v>6</v>
-      </c>
-      <c r="AA9" s="17">
-        <v>6</v>
-      </c>
-      <c r="AB9" s="17">
-        <v>6</v>
-      </c>
-      <c r="AC9" s="17">
-        <v>6</v>
-      </c>
-      <c r="AD9" s="17">
-        <v>6</v>
-      </c>
-      <c r="AE9" s="17">
-        <v>6</v>
-      </c>
-      <c r="AF9" s="17">
-        <v>6</v>
-      </c>
-      <c r="AG9" s="17">
-        <v>6</v>
-      </c>
-      <c r="AH9" s="17">
-        <v>6</v>
-      </c>
-      <c r="AI9" s="17">
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10">
+        <v>3</v>
+      </c>
+      <c r="L9" s="10">
+        <v>3</v>
+      </c>
+      <c r="M9" s="10">
+        <v>4</v>
+      </c>
+      <c r="N9" s="10">
+        <v>4</v>
+      </c>
+      <c r="O9" s="10">
+        <v>5</v>
+      </c>
+      <c r="P9" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>5</v>
+      </c>
+      <c r="R9" s="11">
+        <v>6</v>
+      </c>
+      <c r="S9" s="10">
+        <v>6</v>
+      </c>
+      <c r="T9" s="10">
+        <v>6</v>
+      </c>
+      <c r="U9" s="10">
+        <v>6</v>
+      </c>
+      <c r="V9" s="10">
+        <v>6</v>
+      </c>
+      <c r="W9" s="10">
+        <v>6</v>
+      </c>
+      <c r="X9" s="10">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AJ9" s="10">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:AJ1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
